--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C92A1B8-6C60-4638-AFA8-512ADF3BE824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A7602E-14A1-4258-9E37-B17E6E91D399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1BBAE879-C8E5-43D0-AF57-82A6263CA13C}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
   <si>
     <t>question</t>
   </si>
@@ -206,6 +206,12 @@
   </si>
   <si>
     <t>Mark Zuckerberg</t>
+  </si>
+  <si>
+    <t>option5</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -1072,10 +1078,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC7CECF-6277-4D98-957E-3DF912837F70}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1083,7 +1089,7 @@
     <col min="1" max="1" width="34.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1100,10 +1106,13 @@
         <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1120,10 +1129,13 @@
         <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -1140,10 +1152,13 @@
         <v>15</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
@@ -1160,10 +1175,13 @@
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>21</v>
       </c>
@@ -1180,10 +1198,13 @@
         <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -1200,10 +1221,13 @@
         <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
@@ -1220,10 +1244,13 @@
         <v>35</v>
       </c>
       <c r="F7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>36</v>
       </c>
@@ -1240,10 +1267,13 @@
         <v>40</v>
       </c>
       <c r="F8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>41</v>
       </c>
@@ -1260,10 +1290,13 @@
         <v>45</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
@@ -1280,10 +1313,13 @@
         <v>50</v>
       </c>
       <c r="F10" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>51</v>
       </c>
@@ -1300,10 +1336,13 @@
         <v>55</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>56</v>
       </c>
@@ -1319,11 +1358,14 @@
       <c r="E12" s="2">
         <v>9</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G12" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>57</v>
       </c>
@@ -1340,6 +1382,9 @@
         <v>61</v>
       </c>
       <c r="F13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="2" t="s">
         <v>60</v>
       </c>
     </row>

--- a/questions.xlsx
+++ b/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A7602E-14A1-4258-9E37-B17E6E91D399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F405290-5089-4456-9FF6-98BDAE14D732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1BBAE879-C8E5-43D0-AF57-82A6263CA13C}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{1BBAE879-C8E5-43D0-AF57-82A6263CA13C}"/>
   </bookViews>
   <sheets>
     <sheet name="questions" sheetId="1" r:id="rId1"/>
@@ -20,198 +20,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="64">
-  <si>
-    <t>question</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>What is the capital of France?</t>
   </si>
   <si>
-    <t>Berlin</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>Madrid</t>
-  </si>
-  <si>
     <t>Which planet is known as the Red Planet?</t>
   </si>
   <si>
-    <t>Earth</t>
-  </si>
-  <si>
-    <t>Mars</t>
-  </si>
-  <si>
-    <t>Jupiter</t>
-  </si>
-  <si>
-    <t>option1</t>
-  </si>
-  <si>
-    <t>option2</t>
-  </si>
-  <si>
-    <t>option3</t>
-  </si>
-  <si>
-    <t>option4</t>
-  </si>
-  <si>
-    <t>answer</t>
-  </si>
-  <si>
-    <t>Rome</t>
-  </si>
-  <si>
-    <t>Saturn</t>
-  </si>
-  <si>
-    <t>What is the largest ocean on Earth?</t>
-  </si>
-  <si>
-    <t>Atlantic</t>
-  </si>
-  <si>
-    <t>Indian</t>
-  </si>
-  <si>
-    <t>Arctic</t>
-  </si>
-  <si>
-    <t>Pacific</t>
-  </si>
-  <si>
-    <t>Who wrote 'Hamlet'?</t>
-  </si>
-  <si>
-    <t>Charles Dickens</t>
-  </si>
-  <si>
-    <t>William Shakespeare</t>
-  </si>
-  <si>
-    <t>Leo Tolstoy</t>
-  </si>
-  <si>
-    <t>Mark Twain</t>
-  </si>
-  <si>
-    <t>What is H2O?</t>
-  </si>
-  <si>
-    <t>Salt</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Oxygen</t>
-  </si>
-  <si>
-    <t>Hydrogen</t>
-  </si>
-  <si>
-    <t>What is the currency of Japan?</t>
-  </si>
-  <si>
-    <t>Won</t>
-  </si>
-  <si>
-    <t>Yuan</t>
-  </si>
-  <si>
-    <t>Yen</t>
-  </si>
-  <si>
-    <t>Dollar</t>
-  </si>
-  <si>
-    <t>Who painted the Mona Lisa?</t>
-  </si>
-  <si>
-    <t>Vincent van Gogh</t>
-  </si>
-  <si>
-    <t>Pablo Picasso</t>
-  </si>
-  <si>
-    <t>Leonardo da Vinci</t>
-  </si>
-  <si>
-    <t>Claude Monet</t>
-  </si>
-  <si>
-    <t>What is the tallest mountain in the world?</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>Kangchenjunga</t>
-  </si>
-  <si>
-    <t>Mount Everest</t>
-  </si>
-  <si>
-    <t>Lhotse</t>
-  </si>
-  <si>
-    <t>Which country is known as the Land of the Rising Sun?</t>
-  </si>
-  <si>
-    <t>China</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>South Korea</t>
-  </si>
-  <si>
-    <t>Thailand</t>
-  </si>
-  <si>
-    <t>What is the main ingredient in guacamole?</t>
-  </si>
-  <si>
-    <t>Tomato</t>
-  </si>
-  <si>
-    <t>Onion</t>
-  </si>
-  <si>
-    <t>Avocado</t>
-  </si>
-  <si>
-    <t>Lime</t>
-  </si>
-  <si>
-    <t>What is the square root of 64?</t>
-  </si>
-  <si>
-    <t>Who is the CEO of Tesla?</t>
-  </si>
-  <si>
-    <t>Bill Gates</t>
-  </si>
-  <si>
-    <t>Jeff Bezos</t>
-  </si>
-  <si>
-    <t>Elon Musk</t>
-  </si>
-  <si>
-    <t>Mark Zuckerberg</t>
-  </si>
-  <si>
-    <t>option5</t>
-  </si>
-  <si>
-    <t>x</t>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>OptionA</t>
+  </si>
+  <si>
+    <t>OptionB</t>
+  </si>
+  <si>
+    <t>OptionC</t>
+  </si>
+  <si>
+    <t>OptionD</t>
+  </si>
+  <si>
+    <t>OptionE</t>
+  </si>
+  <si>
+    <t>CorrectAnswer</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>What is 2 + 2?</t>
+  </si>
+  <si>
+    <t>Who wrote 'Romeo and Juliet'?</t>
+  </si>
+  <si>
+    <t>berling</t>
+  </si>
+  <si>
+    <t>paris</t>
+  </si>
+  <si>
+    <t>madrid</t>
+  </si>
+  <si>
+    <t>rome</t>
+  </si>
+  <si>
+    <t>EARTH</t>
+  </si>
+  <si>
+    <t>MARS</t>
+  </si>
+  <si>
+    <t>JUPITER</t>
+  </si>
+  <si>
+    <t>VENUS</t>
+  </si>
+  <si>
+    <t>SATURN</t>
+  </si>
+  <si>
+    <t>DICKENS</t>
+  </si>
+  <si>
+    <t>ROWLING</t>
+  </si>
+  <si>
+    <t>WILLIAM</t>
+  </si>
+  <si>
+    <t>MARK</t>
+  </si>
+  <si>
+    <t>JANE</t>
   </si>
 </sst>
 </file>
@@ -695,14 +587,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1078,314 +964,127 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC7CECF-6277-4D98-957E-3DF912837F70}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="34.21875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>7</v>
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="E5" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="2">
-        <v>6</v>
-      </c>
-      <c r="C12" s="2">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2">
-        <v>9</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="2">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>60</v>
+      <c r="G5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
